--- a/example/A200/A200_SKEL.xlsx
+++ b/example/A200/A200_SKEL.xlsx
@@ -1,19 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlsx2sw\example\A200\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59E746C-F19E-4EB6-9614-F39E34BD781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-30" yWindow="495" windowWidth="28830" windowHeight="17310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,90 +36,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">[A200] AFPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATOR_OD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATOR_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATOR_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLOTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATOR_BACKYOKE_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATOR_SPOKE_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATOR_SLOT_GAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATOR_NEEDLE_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOBBIN_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COIL_W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A300_SKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A400_SKEL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>[A200] AFPM</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ACTIVATION</t>
+  </si>
+  <si>
+    <t>STATOR_OD</t>
+  </si>
+  <si>
+    <t>STATOR_ID</t>
+  </si>
+  <si>
+    <t>STATOR_T</t>
+  </si>
+  <si>
+    <t>SLOTS</t>
+  </si>
+  <si>
+    <t>STATOR_BACKYOKE_T</t>
+  </si>
+  <si>
+    <t>STATOR_SPOKE_T</t>
+  </si>
+  <si>
+    <t>STATOR_SLOT_GAP</t>
+  </si>
+  <si>
+    <t>STATOR_NEEDLE_W</t>
+  </si>
+  <si>
+    <t>BOBBIN_T</t>
+  </si>
+  <si>
+    <t>COIL_W</t>
+  </si>
+  <si>
+    <t>POLES</t>
+  </si>
+  <si>
+    <t>A300_SKEL</t>
+  </si>
+  <si>
+    <t>A400_SKEL</t>
+  </si>
+  <si>
+    <t>AIRGAP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROTOR_BACKYOKE_T</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNET_T</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNET_GAP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="129"/>
     </font>
     <font>
@@ -116,21 +125,21 @@
       <charset val="129"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="D2Coding"/>
       <family val="3"/>
@@ -149,6 +158,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -159,7 +174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
@@ -170,109 +185,121 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="5">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -331,47 +358,63 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -379,12 +422,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -413,7 +456,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -434,7 +477,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -485,7 +528,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -503,262 +546,271 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="19.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="9.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="15.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16380" min="18" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="10.58"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16377" width="9" style="1"/>
+    <col min="16378" max="16384" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="N3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="n">
-        <f aca="false">37.3*2</f>
-        <v>74.6</v>
-      </c>
-      <c r="D4" s="12" t="n">
-        <f aca="false">26*2</f>
+      <c r="C4" s="10">
+        <f>37.3*2</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D4" s="10">
+        <f>26*2</f>
         <v>52</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="10">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="10">
         <v>8.5</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="10">
         <v>3.1</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="10">
         <v>0.5</v>
       </c>
-      <c r="L4" s="12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M4" s="12" t="n">
+      <c r="L4" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M4" s="10">
         <v>14</v>
       </c>
+      <c r="N4" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="9">
+        <v>3</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="n">
-        <f aca="false">37.3*2</f>
-        <v>74.6</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <f aca="false">26*2</f>
+      <c r="C5" s="10">
+        <f>37.3*2</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D5" s="10">
+        <f>26*2</f>
         <v>52</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="10">
         <v>40</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="10">
         <v>12</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="10">
         <v>3</v>
       </c>
-      <c r="H5" s="12" t="n">
+      <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="10">
         <v>8.5</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="10">
         <v>3.1</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="10">
         <v>0.5</v>
       </c>
-      <c r="L5" s="12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M5" s="12" t="n">
+      <c r="L5" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M5" s="10">
         <v>14</v>
       </c>
+      <c r="N5" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="9">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A2:Q2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62109375" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>